--- a/biology/Histoire de la zoologie et de la botanique/Jacques_Daléchamps/Jacques_Daléchamps.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacques_Daléchamps/Jacques_Daléchamps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jacques_Dal%C3%A9champs</t>
+          <t>Jacques_Daléchamps</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Daléchamps ou D’Aléchamps, né en 1513 à Caen et mort le 1er mars 1588 à Lyon, est un médecin, botaniste, philologue, et naturaliste français. Il est célèbre pour sa traduction latine d’Athénée, enrichie de notes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jacques_Dal%C3%A9champs</t>
+          <t>Jacques_Daléchamps</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il entre à l’université de Montpellier en 1545 et reçoit le titre de docteur en 1547. Il suit les cours de Guillaume Rondelet. Après avoir vécu quelques années à Grenoble et à Valence, il s’installe à Lyon en 1552. Dans cette ville, où il demeura jusqu'à sa mort, il exerce la médecine à l’hôtel-Dieu.
 Son œuvre la plus importante est Historia generalis plantarum (1586), compilation de toutes les connaissances botaniques de son époque, qui est publiée à Lyon. Ce livre est parfois baptisé Historia plantarum Lugdunensis car il décrit la flore autour de la ville. Bien que seul son nom apparaisse sur la page de titre, il ne fait pas de doute que certaines parties sont de la plume de Jean Bauhin et de Jean Des Moulins. L'ouvrage décrit 2731 plantes, un nombre record pour l'époque, accompagnées d'une description et d'illustrations parfois recopiées de Mathias de l'Obel. On y reconnaît une érudition profonde.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jacques_Dal%C3%A9champs</t>
+          <t>Jacques_Daléchamps</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Historia generalis plantarum. Lyon, chez Guil. Roville, 1586. Première édition contient deux errata, l’index en latin, français, grec, arabe, italien, espagnol, allemand, flamand, bohémien et anglais. Ouvrage traduit par Jean Des Moulins, 1615, ouvrage où sont rassemblées toutes les connaissances que l'on possédait alors en botanique, mais dont malheureusement il ne put faire par lui-même la publication, ce qui donna selon une source du XIXe siècle (Dictionnaire Bouillet) lieu à bien des fautes.
 une édition d'Athénée, avec traduction latine et commentaires, 1598
